--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\LatexTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF53D04-B708-42F7-8645-6709E0BCD1B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0381F3-6000-4FDB-B422-3E55B9B6B5CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D5"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
